--- a/Test Data/FC_Power_Calculation_Default_Values.xlsx
+++ b/Test Data/FC_Power_Calculation_Default_Values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA40AE09-78DE-4FA9-BAC1-E6526D68D81E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84B9EE9-24D7-43AF-8573-B9B233119588}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Test Data/FC_Power_Calculation_Default_Values.xlsx
+++ b/Test Data/FC_Power_Calculation_Default_Values.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84B9EE9-24D7-43AF-8573-B9B233119588}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D708D92C-1CFD-4821-BDFC-C1F93696E940}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="6" r:id="rId1"/>
     <sheet name="Belgium" sheetId="7" r:id="rId2"/>
+    <sheet name="Denmark" sheetId="8" r:id="rId3"/>
+    <sheet name="Norway" sheetId="10" r:id="rId4"/>
+    <sheet name="Sweden" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="69">
   <si>
     <t>Color Codes</t>
   </si>
@@ -224,6 +227,15 @@
   </si>
   <si>
     <t>Belgium Market</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>Sweden Market</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C32A9C1-1AA5-45B6-87F4-AE64D0970638}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,4 +1467,733 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308F360A-8E7E-4AFF-898F-E91E708927B4}">
+  <dimension ref="A1:W8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.314</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D5E882-7BFB-44B1-AEF5-DB6613D10E46}">
+  <dimension ref="A1:W8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.314</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EE1FC3-4242-4D1F-BCE4-2DF7F6A819B4}">
+  <dimension ref="A1:W8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.314</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Power_Calculation_Default_Values.xlsx
+++ b/Test Data/FC_Power_Calculation_Default_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D708D92C-1CFD-4821-BDFC-C1F93696E940}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9DFE6C-2DBE-42E9-B7BA-1E96D54EDD55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Denmark" sheetId="8" r:id="rId3"/>
     <sheet name="Norway" sheetId="10" r:id="rId4"/>
     <sheet name="Sweden" sheetId="9" r:id="rId5"/>
+    <sheet name="Italy" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="82">
   <si>
     <t>Color Codes</t>
   </si>
@@ -236,6 +237,45 @@
   </si>
   <si>
     <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-3465/T3759</t>
+  </si>
+  <si>
+    <t>NGC-3464/T3756</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>FC32-1</t>
+  </si>
+  <si>
+    <t>0.105</t>
+  </si>
+  <si>
+    <t>6.23</t>
+  </si>
+  <si>
+    <t>1.172</t>
+  </si>
+  <si>
+    <t>0.165</t>
+  </si>
+  <si>
+    <t>0.337</t>
+  </si>
+  <si>
+    <t>0.527</t>
+  </si>
+  <si>
+    <t>10.51</t>
+  </si>
+  <si>
+    <t>FC240-4</t>
+  </si>
+  <si>
+    <t>NGC-3443/T1983/T1985</t>
   </si>
 </sst>
 </file>
@@ -1716,249 +1756,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D5E882-7BFB-44B1-AEF5-DB6613D10E46}">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
-    <col min="11" max="11" width="31.6640625" customWidth="1"/>
-    <col min="12" max="12" width="33.77734375" customWidth="1"/>
-    <col min="13" max="13" width="33.33203125" customWidth="1"/>
-    <col min="14" max="14" width="36.21875" customWidth="1"/>
-    <col min="15" max="15" width="35.6640625" customWidth="1"/>
-    <col min="16" max="16" width="36.5546875" customWidth="1"/>
-    <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="27.44140625" customWidth="1"/>
-    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="14">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0.314</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="14">
-        <v>0</v>
-      </c>
-      <c r="T8" s="14">
-        <v>220</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EE1FC3-4242-4D1F-BCE4-2DF7F6A819B4}">
-  <dimension ref="A1:W8"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -1998,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="11" t="s">
@@ -2025,7 +1822,9 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
       <c r="E4" s="6" t="s">
@@ -2120,7 +1919,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
@@ -2196,4 +1995,635 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EE1FC3-4242-4D1F-BCE4-2DF7F6A819B4}">
+  <dimension ref="A1:W8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.314</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAF36EE-B5AD-40F2-8ABB-D05F84BA66D1}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.314</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Power_Calculation_Default_Values.xlsx
+++ b/Test Data/FC_Power_Calculation_Default_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9DFE6C-2DBE-42E9-B7BA-1E96D54EDD55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60072F77-C853-4982-AE33-0CAFC92180DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Norway" sheetId="10" r:id="rId4"/>
     <sheet name="Sweden" sheetId="9" r:id="rId5"/>
     <sheet name="Italy" sheetId="11" r:id="rId6"/>
+    <sheet name="Spain" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="84">
   <si>
     <t>Color Codes</t>
   </si>
@@ -276,6 +277,12 @@
   </si>
   <si>
     <t>NGC-3443/T1983/T1985</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3442/T1710/T1712</t>
   </si>
 </sst>
 </file>
@@ -408,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -459,6 +466,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2246,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAF36EE-B5AD-40F2-8ABB-D05F84BA66D1}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2625,5 +2633,393 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6977683-ECBC-477E-B719-3A8827A60340}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.314</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0.223</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>7</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/FC_Power_Calculation_Default_Values.xlsx
+++ b/Test Data/FC_Power_Calculation_Default_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60072F77-C853-4982-AE33-0CAFC92180DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E36B9F4-241F-4CE3-AE0C-59FDF9724824}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Sweden" sheetId="9" r:id="rId5"/>
     <sheet name="Italy" sheetId="11" r:id="rId6"/>
     <sheet name="Spain" sheetId="12" r:id="rId7"/>
+    <sheet name="Romania" sheetId="13" r:id="rId8"/>
+    <sheet name="Slovakia" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="88">
   <si>
     <t>Color Codes</t>
   </si>
@@ -283,6 +285,18 @@
   </si>
   <si>
     <t>NGC-3442/T1710/T1712</t>
+  </si>
+  <si>
+    <t>Romania Market</t>
+  </si>
+  <si>
+    <t>NGC-4307/T3609/T3610</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-4306/T3585/T3587</t>
   </si>
 </sst>
 </file>
@@ -457,6 +471,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -466,7 +481,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,13 +789,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1160,13 +1174,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1547,13 +1561,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1790,13 +1804,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2035,13 +2049,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2280,13 +2294,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2641,7 +2655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6977683-ECBC-477E-B719-3A8827A60340}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2667,13 +2681,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -2707,7 +2721,7 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="5"/>
@@ -3012,6 +3026,638 @@
         <v>39</v>
       </c>
       <c r="W10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E419AB-ACA9-4E5E-A6B1-F77731BA8CED}">
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.498</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEF8C86-31AB-43DB-A0B2-FF3F41A7215F}">
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.498</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="9" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Test Data/FC_Power_Calculation_Default_Values.xlsx
+++ b/Test Data/FC_Power_Calculation_Default_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E36B9F4-241F-4CE3-AE0C-59FDF9724824}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA3942-424A-4980-9F4C-37C836DC49E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Spain" sheetId="12" r:id="rId7"/>
     <sheet name="Romania" sheetId="13" r:id="rId8"/>
     <sheet name="Slovakia" sheetId="14" r:id="rId9"/>
+    <sheet name="Hungary" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="90">
   <si>
     <t>Color Codes</t>
   </si>
@@ -297,6 +298,12 @@
   </si>
   <si>
     <t>NGC-4306/T3585/T3587</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-4308/T3665/T3666</t>
   </si>
 </sst>
 </file>
@@ -1144,6 +1151,393 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B97258-DE00-4DD7-A189-73519D2C253F}">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14">
+        <v>220</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.498</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>220</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>220</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C32A9C1-1AA5-45B6-87F4-AE64D0970638}">
   <dimension ref="A1:W10"/>
@@ -2269,7 +2663,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3358,8 +3752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEF8C86-31AB-43DB-A0B2-FF3F41A7215F}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
